--- a/data/trans_orig/Q5404-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5404-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93D8C5F0-FA01-45A6-851D-950413BCE22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{883CCE9A-CB78-4FA9-B132-B7954BC98739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CD545B0B-C3EC-4946-9349-CF9D3A8B3D71}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8225A74B-2B50-439B-998F-F23D7951990E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="359">
   <si>
     <t>Población según si es capaz de manejar dinero en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -77,1060 +77,1045 @@
     <t>2,35%</t>
   </si>
   <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>Con alguna ayuda</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>Sin ayuda</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de manejar dinero en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de manejar dinero en 2015 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
     <t>1,17%</t>
   </si>
   <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>Con alguna ayuda</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>Sin ayuda</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
   </si>
   <si>
     <t>2,86%</t>
   </si>
   <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de manejar dinero en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de manejar dinero en 2023 (Tasa respuesta: 31,26%)</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
   </si>
   <si>
     <t>4,73%</t>
   </si>
   <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
   </si>
   <si>
     <t>5,09%</t>
   </si>
   <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de manejar dinero en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
   </si>
   <si>
     <t>2,71%</t>
   </si>
   <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
   </si>
   <si>
     <t>5,66%</t>
   </si>
   <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de manejar dinero en 2023 (Tasa respuesta: 31,26%)</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
+    <t>9,97%</t>
   </si>
   <si>
     <t>6,8%</t>
   </si>
   <si>
-    <t>5,34%</t>
-  </si>
-  <si>
     <t>93,9%</t>
   </si>
   <si>
     <t>92,23%</t>
   </si>
   <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
   </si>
   <si>
     <t>90,21%</t>
   </si>
   <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
   </si>
 </sst>
 </file>
@@ -1542,7 +1527,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A043D10C-6C95-4D94-9B0B-32EF8FA98E1B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE4B431C-E640-4DA5-BD60-8767E8D21E33}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1735,10 +1720,10 @@
         <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>50</v>
@@ -1747,19 +1732,19 @@
         <v>50717</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>369</v>
@@ -1768,28 +1753,28 @@
         <v>346268</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>519</v>
       </c>
       <c r="I6" s="7">
-        <v>528433</v>
+        <v>528432</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>888</v>
@@ -1798,13 +1783,13 @@
         <v>874700</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1819,28 +1804,28 @@
         <v>373189</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>574</v>
       </c>
       <c r="I7" s="7">
-        <v>587750</v>
+        <v>587749</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>973</v>
@@ -1849,18 +1834,18 @@
         <v>960938</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1872,13 +1857,13 @@
         <v>1751</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -1887,13 +1872,13 @@
         <v>2055</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -1902,13 +1887,13 @@
         <v>3806</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1923,13 +1908,13 @@
         <v>2590</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -1938,13 +1923,13 @@
         <v>1124</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
@@ -1953,19 +1938,19 @@
         <v>3714</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
         <v>85</v>
@@ -1974,13 +1959,13 @@
         <v>83742</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H10" s="7">
         <v>57</v>
@@ -1989,13 +1974,13 @@
         <v>59033</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M10" s="7">
         <v>142</v>
@@ -2004,13 +1989,13 @@
         <v>142775</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2025,13 +2010,13 @@
         <v>88083</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>60</v>
@@ -2040,13 +2025,13 @@
         <v>62212</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>149</v>
@@ -2055,18 +2040,18 @@
         <v>150295</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2078,13 +2063,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2093,13 +2078,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2108,13 +2093,13 @@
         <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2129,13 +2114,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2144,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -2159,19 +2144,19 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
         <v>35</v>
@@ -2180,13 +2165,13 @@
         <v>41194</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>72</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H14" s="7">
         <v>27</v>
@@ -2195,13 +2180,13 @@
         <v>26881</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M14" s="7">
         <v>62</v>
@@ -2210,13 +2195,13 @@
         <v>68075</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2231,13 +2216,13 @@
         <v>41194</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>27</v>
@@ -2246,13 +2231,13 @@
         <v>26881</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
         <v>62</v>
@@ -2261,13 +2246,13 @@
         <v>68075</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2284,13 +2269,13 @@
         <v>10539</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H16" s="7">
         <v>27</v>
@@ -2299,13 +2284,13 @@
         <v>28788</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M16" s="7">
         <v>38</v>
@@ -2314,13 +2299,13 @@
         <v>39327</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="P16" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2335,13 +2320,13 @@
         <v>20724</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H17" s="7">
         <v>31</v>
@@ -2350,13 +2335,13 @@
         <v>33708</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M17" s="7">
         <v>54</v>
@@ -2365,19 +2350,19 @@
         <v>54432</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>489</v>
@@ -2386,13 +2371,13 @@
         <v>471204</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="H18" s="7">
         <v>603</v>
@@ -2401,13 +2386,13 @@
         <v>614346</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M18" s="7">
         <v>1092</v>
@@ -2416,13 +2401,13 @@
         <v>1085550</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2437,13 +2422,13 @@
         <v>502466</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>661</v>
@@ -2452,13 +2437,13 @@
         <v>676842</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>1184</v>
@@ -2467,18 +2452,18 @@
         <v>1179308</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2497,7 +2482,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1DB289E-C5B2-4042-9839-0AAF6B335CAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB4F741-708B-4735-B1F8-F36489510D83}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2514,7 +2499,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2621,13 +2606,13 @@
         <v>22043</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H4" s="7">
         <v>38</v>
@@ -2636,13 +2621,13 @@
         <v>42487</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M4" s="7">
         <v>58</v>
@@ -2651,10 +2636,10 @@
         <v>64530</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>110</v>
@@ -2690,10 +2675,10 @@
         <v>114</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M5" s="7">
         <v>88</v>
@@ -2702,19 +2687,19 @@
         <v>97633</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>337</v>
@@ -2723,13 +2708,13 @@
         <v>367354</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H6" s="7">
         <v>491</v>
@@ -2738,13 +2723,13 @@
         <v>519426</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M6" s="7">
         <v>828</v>
@@ -2753,13 +2738,13 @@
         <v>886779</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2774,13 +2759,13 @@
         <v>414398</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>596</v>
@@ -2789,13 +2774,13 @@
         <v>634545</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>974</v>
@@ -2804,18 +2789,18 @@
         <v>1048942</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2827,13 +2812,13 @@
         <v>992</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -2842,13 +2827,13 @@
         <v>2424</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -2857,13 +2842,13 @@
         <v>3416</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2878,13 +2863,13 @@
         <v>5442</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -2893,13 +2878,13 @@
         <v>1056</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -2908,19 +2893,19 @@
         <v>6498</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
         <v>100</v>
@@ -2929,13 +2914,13 @@
         <v>112231</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H10" s="7">
         <v>74</v>
@@ -2944,13 +2929,13 @@
         <v>79594</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M10" s="7">
         <v>174</v>
@@ -2959,13 +2944,13 @@
         <v>191825</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2980,13 +2965,13 @@
         <v>118665</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>77</v>
@@ -2995,13 +2980,13 @@
         <v>83074</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>182</v>
@@ -3010,18 +2995,18 @@
         <v>201739</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3033,13 +3018,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3048,13 +3033,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3063,13 +3048,13 @@
         <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3084,13 +3069,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3099,13 +3084,13 @@
         <v>1100</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -3114,19 +3099,19 @@
         <v>1100</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
         <v>21</v>
@@ -3135,13 +3120,13 @@
         <v>26575</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H14" s="7">
         <v>17</v>
@@ -3150,13 +3135,13 @@
         <v>21146</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M14" s="7">
         <v>38</v>
@@ -3165,13 +3150,13 @@
         <v>47721</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3186,13 +3171,13 @@
         <v>26575</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>18</v>
@@ -3201,13 +3186,13 @@
         <v>22246</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
         <v>39</v>
@@ -3216,13 +3201,13 @@
         <v>48821</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3239,13 +3224,13 @@
         <v>23035</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H16" s="7">
         <v>40</v>
@@ -3254,13 +3239,13 @@
         <v>44911</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M16" s="7">
         <v>61</v>
@@ -3269,13 +3254,13 @@
         <v>67946</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3290,13 +3275,13 @@
         <v>30443</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H17" s="7">
         <v>69</v>
@@ -3305,13 +3290,13 @@
         <v>74788</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M17" s="7">
         <v>94</v>
@@ -3320,19 +3305,19 @@
         <v>105231</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>458</v>
@@ -3341,13 +3326,13 @@
         <v>506158</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H18" s="7">
         <v>582</v>
@@ -3356,13 +3341,13 @@
         <v>620166</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M18" s="7">
         <v>1040</v>
@@ -3371,13 +3356,13 @@
         <v>1126325</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3392,13 +3377,13 @@
         <v>559637</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>691</v>
@@ -3407,13 +3392,13 @@
         <v>739865</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>1195</v>
@@ -3422,18 +3407,18 @@
         <v>1299502</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3452,7 +3437,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B086FF1E-B2B5-4EC2-867F-324E72271DF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A9E7BBC-ADE0-457F-8404-1AECCCB70A0B}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3469,7 +3454,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3576,13 +3561,13 @@
         <v>8595</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -3591,13 +3576,13 @@
         <v>24471</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M4" s="7">
         <v>29</v>
@@ -3606,13 +3591,13 @@
         <v>33066</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3627,13 +3612,13 @@
         <v>18601</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>91</v>
+        <v>197</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H5" s="7">
         <v>32</v>
@@ -3642,13 +3627,13 @@
         <v>39252</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M5" s="7">
         <v>53</v>
@@ -3657,34 +3642,34 @@
         <v>57853</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>355</v>
       </c>
       <c r="D6" s="7">
-        <v>326706</v>
+        <v>326705</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H6" s="7">
         <v>420</v>
@@ -3693,13 +3678,13 @@
         <v>491034</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M6" s="7">
         <v>775</v>
@@ -3708,13 +3693,13 @@
         <v>817739</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3726,16 +3711,16 @@
         <v>386</v>
       </c>
       <c r="D7" s="7">
-        <v>353902</v>
+        <v>353901</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>471</v>
@@ -3744,13 +3729,13 @@
         <v>554757</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>857</v>
@@ -3759,18 +3744,18 @@
         <v>908658</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -3782,13 +3767,13 @@
         <v>1748</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>215</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>140</v>
+        <v>214</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -3797,13 +3782,13 @@
         <v>4230</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -3812,13 +3797,13 @@
         <v>5978</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>218</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>219</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3833,13 +3818,13 @@
         <v>1482</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
@@ -3848,13 +3833,13 @@
         <v>7983</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M9" s="7">
         <v>9</v>
@@ -3863,19 +3848,19 @@
         <v>9465</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>227</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
         <v>193</v>
@@ -3884,13 +3869,13 @@
         <v>189301</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H10" s="7">
         <v>148</v>
@@ -3899,13 +3884,13 @@
         <v>175862</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M10" s="7">
         <v>341</v>
@@ -3914,13 +3899,13 @@
         <v>365163</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3935,13 +3920,13 @@
         <v>192532</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>157</v>
@@ -3950,13 +3935,13 @@
         <v>188074</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>354</v>
@@ -3965,18 +3950,18 @@
         <v>380606</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3988,10 +3973,10 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>14</v>
@@ -4003,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4018,13 +4003,13 @@
         <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4039,13 +4024,13 @@
         <v>868</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -4054,13 +4039,13 @@
         <v>1376</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -4069,19 +4054,19 @@
         <v>2244</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
         <v>40</v>
@@ -4090,13 +4075,13 @@
         <v>41161</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H14" s="7">
         <v>25</v>
@@ -4105,13 +4090,13 @@
         <v>32298</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M14" s="7">
         <v>65</v>
@@ -4120,13 +4105,13 @@
         <v>73459</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4141,13 +4126,13 @@
         <v>42029</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>26</v>
@@ -4156,13 +4141,13 @@
         <v>33674</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
         <v>67</v>
@@ -4171,13 +4156,13 @@
         <v>75703</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4194,13 +4179,13 @@
         <v>10343</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>50</v>
+        <v>214</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
@@ -4212,10 +4197,10 @@
         <v>17</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>252</v>
+        <v>188</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="M16" s="7">
         <v>33</v>
@@ -4224,13 +4209,13 @@
         <v>39044</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>85</v>
+        <v>250</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4245,13 +4230,13 @@
         <v>20952</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>257</v>
+        <v>155</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>155</v>
+        <v>254</v>
       </c>
       <c r="H17" s="7">
         <v>40</v>
@@ -4260,13 +4245,13 @@
         <v>48610</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="M17" s="7">
         <v>64</v>
@@ -4275,19 +4260,19 @@
         <v>69562</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>588</v>
@@ -4296,13 +4281,13 @@
         <v>557168</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H18" s="7">
         <v>593</v>
@@ -4311,13 +4296,13 @@
         <v>699194</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="M18" s="7">
         <v>1181</v>
@@ -4326,13 +4311,13 @@
         <v>1256362</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4347,13 +4332,13 @@
         <v>588463</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>654</v>
@@ -4362,13 +4347,13 @@
         <v>776505</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>1278</v>
@@ -4377,18 +4362,18 @@
         <v>1364968</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -4407,7 +4392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7736600-C911-4966-8495-00BA96089E84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643863A3-4235-4FC9-80B4-B4B07757AE8D}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4424,7 +4409,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4531,13 +4516,13 @@
         <v>7509</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H4" s="7">
         <v>67</v>
@@ -4546,13 +4531,13 @@
         <v>39780</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M4" s="7">
         <v>80</v>
@@ -4561,13 +4546,13 @@
         <v>47290</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4582,13 +4567,13 @@
         <v>20406</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H5" s="7">
         <v>117</v>
@@ -4597,13 +4582,13 @@
         <v>64264</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="M5" s="7">
         <v>147</v>
@@ -4612,19 +4597,19 @@
         <v>84670</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>385</v>
@@ -4633,13 +4618,13 @@
         <v>259557</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>290</v>
+        <v>98</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H6" s="7">
         <v>834</v>
@@ -4648,13 +4633,13 @@
         <v>450821</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="M6" s="7">
         <v>1219</v>
@@ -4663,13 +4648,13 @@
         <v>710378</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4684,13 +4669,13 @@
         <v>287472</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>1018</v>
@@ -4699,13 +4684,13 @@
         <v>554865</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>1446</v>
@@ -4714,18 +4699,18 @@
         <v>842337</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -4737,13 +4722,13 @@
         <v>1444</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>299</v>
+        <v>132</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -4752,13 +4737,13 @@
         <v>2497</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
@@ -4767,13 +4752,13 @@
         <v>3940</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>12</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4788,13 +4773,13 @@
         <v>10294</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>306</v>
+        <v>197</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>307</v>
+        <v>236</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>308</v>
+        <v>55</v>
       </c>
       <c r="H9" s="7">
         <v>33</v>
@@ -4803,13 +4788,13 @@
         <v>16408</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="M9" s="7">
         <v>48</v>
@@ -4818,19 +4803,19 @@
         <v>26702</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>172</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
         <v>409</v>
@@ -4839,13 +4824,13 @@
         <v>282829</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H10" s="7">
         <v>491</v>
@@ -4854,13 +4839,13 @@
         <v>367517</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="M10" s="7">
         <v>900</v>
@@ -4869,13 +4854,13 @@
         <v>650346</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4890,13 +4875,13 @@
         <v>294566</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>529</v>
@@ -4905,13 +4890,13 @@
         <v>386422</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>955</v>
@@ -4920,18 +4905,18 @@
         <v>680988</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4943,13 +4928,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4958,13 +4943,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4973,13 +4958,13 @@
         <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4994,13 +4979,13 @@
         <v>2663</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>325</v>
+        <v>219</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>320</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -5009,13 +4994,13 @@
         <v>2477</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -5024,19 +5009,19 @@
         <v>5140</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
         <v>163</v>
@@ -5045,13 +5030,13 @@
         <v>109323</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="H14" s="7">
         <v>148</v>
@@ -5060,13 +5045,13 @@
         <v>75768</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="M14" s="7">
         <v>311</v>
@@ -5075,13 +5060,13 @@
         <v>185091</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>148</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5096,13 +5081,13 @@
         <v>111986</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>152</v>
@@ -5111,13 +5096,13 @@
         <v>78245</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
         <v>320</v>
@@ -5126,13 +5111,13 @@
         <v>190231</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5149,13 +5134,13 @@
         <v>8953</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="H16" s="7">
         <v>72</v>
@@ -5164,13 +5149,13 @@
         <v>42277</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>221</v>
+        <v>341</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>87</v>
@@ -5179,13 +5164,13 @@
         <v>51230</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5200,13 +5185,13 @@
         <v>33363</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H17" s="7">
         <v>154</v>
@@ -5215,13 +5200,13 @@
         <v>83149</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>280</v>
+        <v>349</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M17" s="7">
         <v>204</v>
@@ -5230,19 +5215,19 @@
         <v>116512</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>354</v>
+        <v>169</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7">
         <v>957</v>
@@ -5251,13 +5236,13 @@
         <v>651708</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H18" s="7">
         <v>1473</v>
@@ -5266,13 +5251,13 @@
         <v>894106</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>358</v>
+        <v>179</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>360</v>
+        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>2430</v>
@@ -5281,13 +5266,13 @@
         <v>1545815</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5302,13 +5287,13 @@
         <v>694024</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>1699</v>
@@ -5317,13 +5302,13 @@
         <v>1019532</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>2721</v>
@@ -5332,18 +5317,18 @@
         <v>1713556</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5404-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5404-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{883CCE9A-CB78-4FA9-B132-B7954BC98739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{589F46AE-EFB1-4A0D-9C34-DCD989424403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8225A74B-2B50-439B-998F-F23D7951990E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CCFB239F-A2A5-445A-A711-BED31EDC75CF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="365">
   <si>
     <t>Población según si es capaz de manejar dinero en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -77,19 +77,19 @@
     <t>2,35%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
   </si>
   <si>
     <t>4,55%</t>
   </si>
   <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
   </si>
   <si>
     <t>3,7%</t>
@@ -98,7 +98,7 @@
     <t>2,63%</t>
   </si>
   <si>
-    <t>5,04%</t>
+    <t>4,94%</t>
   </si>
   <si>
     <t>Con alguna ayuda</t>
@@ -107,25 +107,28 @@
     <t>4,86%</t>
   </si>
   <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
   </si>
   <si>
     <t>5,54%</t>
   </si>
   <si>
-    <t>7,64%</t>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
   </si>
   <si>
     <t>5,28%</t>
   </si>
   <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
   </si>
   <si>
     <t>Sin ayuda</t>
@@ -134,979 +137,994 @@
     <t>92,79%</t>
   </si>
   <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
   </si>
   <si>
     <t>89,91%</t>
   </si>
   <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
   </si>
   <si>
     <t>91,03%</t>
   </si>
   <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de manejar dinero en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de manejar dinero en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
     <t>89,06%</t>
   </si>
   <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de manejar dinero en 2023 (Tasa respuesta: 31,26%)</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
   </si>
   <si>
     <t>5,83%</t>
   </si>
   <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de manejar dinero en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
   </si>
   <si>
     <t>91,52%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de manejar dinero en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de manejar dinero en 2023 (Tasa respuesta: 31,26%)</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
   </si>
   <si>
     <t>90,21%</t>
@@ -1527,7 +1545,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE4B431C-E640-4DA5-BD60-8767E8D21E33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{265D130C-78F3-47DA-AFDB-60FB20006841}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1720,10 +1738,10 @@
         <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>50</v>
@@ -1732,19 +1750,19 @@
         <v>50717</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>369</v>
@@ -1753,28 +1771,28 @@
         <v>346268</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>519</v>
       </c>
       <c r="I6" s="7">
-        <v>528432</v>
+        <v>528433</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>888</v>
@@ -1783,13 +1801,13 @@
         <v>874700</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1804,28 +1822,28 @@
         <v>373189</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>574</v>
       </c>
       <c r="I7" s="7">
-        <v>587749</v>
+        <v>587750</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
         <v>973</v>
@@ -1834,18 +1852,18 @@
         <v>960938</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1857,13 +1875,13 @@
         <v>1751</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -1872,13 +1890,13 @@
         <v>2055</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -1887,13 +1905,13 @@
         <v>3806</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1908,7 +1926,7 @@
         <v>2590</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>50</v>
@@ -1926,7 +1944,7 @@
         <v>52</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>53</v>
@@ -1941,16 +1959,16 @@
         <v>54</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
         <v>85</v>
@@ -1959,13 +1977,13 @@
         <v>83742</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H10" s="7">
         <v>57</v>
@@ -1974,13 +1992,13 @@
         <v>59033</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M10" s="7">
         <v>142</v>
@@ -1989,13 +2007,13 @@
         <v>142775</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2010,13 +2028,13 @@
         <v>88083</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
         <v>60</v>
@@ -2025,13 +2043,13 @@
         <v>62212</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
         <v>149</v>
@@ -2040,18 +2058,18 @@
         <v>150295</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2063,13 +2081,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2078,13 +2096,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2093,13 +2111,13 @@
         <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2114,13 +2132,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2129,13 +2147,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -2144,19 +2162,19 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
         <v>35</v>
@@ -2165,13 +2183,13 @@
         <v>41194</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>71</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H14" s="7">
         <v>27</v>
@@ -2180,13 +2198,13 @@
         <v>26881</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M14" s="7">
         <v>62</v>
@@ -2195,13 +2213,13 @@
         <v>68075</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2216,13 +2234,13 @@
         <v>41194</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7">
         <v>27</v>
@@ -2231,13 +2249,13 @@
         <v>26881</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M15" s="7">
         <v>62</v>
@@ -2246,13 +2264,13 @@
         <v>68075</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2269,13 +2287,13 @@
         <v>10539</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="H16" s="7">
         <v>27</v>
@@ -2284,13 +2302,13 @@
         <v>28788</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M16" s="7">
         <v>38</v>
@@ -2299,13 +2317,13 @@
         <v>39327</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2362,7 +2380,7 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>489</v>
@@ -2422,13 +2440,13 @@
         <v>502466</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
         <v>661</v>
@@ -2437,13 +2455,13 @@
         <v>676842</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M19" s="7">
         <v>1184</v>
@@ -2452,13 +2470,13 @@
         <v>1179308</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2482,7 +2500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB4F741-708B-4735-B1F8-F36489510D83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DD61FB-AEFB-497E-9597-F828FA5767F4}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2675,10 +2693,10 @@
         <v>114</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M5" s="7">
         <v>88</v>
@@ -2687,19 +2705,19 @@
         <v>97633</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>337</v>
@@ -2708,13 +2726,13 @@
         <v>367354</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H6" s="7">
         <v>491</v>
@@ -2723,13 +2741,13 @@
         <v>519426</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M6" s="7">
         <v>828</v>
@@ -2738,13 +2756,13 @@
         <v>886779</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2759,13 +2777,13 @@
         <v>414398</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>596</v>
@@ -2774,13 +2792,13 @@
         <v>634545</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
         <v>974</v>
@@ -2789,18 +2807,18 @@
         <v>1048942</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2812,13 +2830,13 @@
         <v>992</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -2827,13 +2845,13 @@
         <v>2424</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -2842,13 +2860,13 @@
         <v>3416</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2863,13 +2881,13 @@
         <v>5442</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -2878,13 +2896,13 @@
         <v>1056</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -2893,19 +2911,19 @@
         <v>6498</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
         <v>100</v>
@@ -2914,13 +2932,13 @@
         <v>112231</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>34</v>
+        <v>144</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H10" s="7">
         <v>74</v>
@@ -2929,13 +2947,13 @@
         <v>79594</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M10" s="7">
         <v>174</v>
@@ -2944,13 +2962,13 @@
         <v>191825</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2965,13 +2983,13 @@
         <v>118665</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
         <v>77</v>
@@ -2980,13 +2998,13 @@
         <v>83074</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
         <v>182</v>
@@ -2995,18 +3013,18 @@
         <v>201739</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3018,13 +3036,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3033,13 +3051,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3048,13 +3066,13 @@
         <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3069,13 +3087,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3084,13 +3102,13 @@
         <v>1100</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>153</v>
+        <v>19</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -3099,19 +3117,19 @@
         <v>1100</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
         <v>21</v>
@@ -3120,13 +3138,13 @@
         <v>26575</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H14" s="7">
         <v>17</v>
@@ -3135,13 +3153,13 @@
         <v>21146</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M14" s="7">
         <v>38</v>
@@ -3150,13 +3168,13 @@
         <v>47721</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3171,13 +3189,13 @@
         <v>26575</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7">
         <v>18</v>
@@ -3186,13 +3204,13 @@
         <v>22246</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M15" s="7">
         <v>39</v>
@@ -3201,13 +3219,13 @@
         <v>48821</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3227,10 +3245,10 @@
         <v>82</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H16" s="7">
         <v>40</v>
@@ -3239,13 +3257,13 @@
         <v>44911</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M16" s="7">
         <v>61</v>
@@ -3254,13 +3272,13 @@
         <v>67946</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3275,13 +3293,13 @@
         <v>30443</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H17" s="7">
         <v>69</v>
@@ -3290,13 +3308,13 @@
         <v>74788</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M17" s="7">
         <v>94</v>
@@ -3305,19 +3323,19 @@
         <v>105231</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>458</v>
@@ -3326,13 +3344,13 @@
         <v>506158</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H18" s="7">
         <v>582</v>
@@ -3341,13 +3359,13 @@
         <v>620166</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M18" s="7">
         <v>1040</v>
@@ -3356,13 +3374,13 @@
         <v>1126325</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3377,13 +3395,13 @@
         <v>559637</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
         <v>691</v>
@@ -3392,13 +3410,13 @@
         <v>739865</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M19" s="7">
         <v>1195</v>
@@ -3407,13 +3425,13 @@
         <v>1299502</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3437,7 +3455,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A9E7BBC-ADE0-457F-8404-1AECCCB70A0B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88F47A69-97D7-47B5-BD28-778B9167F7CF}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3454,7 +3472,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3561,13 +3579,13 @@
         <v>8595</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -3576,13 +3594,13 @@
         <v>24471</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M4" s="7">
         <v>29</v>
@@ -3591,13 +3609,13 @@
         <v>33066</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3612,13 +3630,13 @@
         <v>18601</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H5" s="7">
         <v>32</v>
@@ -3627,13 +3645,13 @@
         <v>39252</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M5" s="7">
         <v>53</v>
@@ -3642,34 +3660,34 @@
         <v>57853</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>355</v>
       </c>
       <c r="D6" s="7">
-        <v>326705</v>
+        <v>326706</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="H6" s="7">
         <v>420</v>
@@ -3678,13 +3696,13 @@
         <v>491034</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M6" s="7">
         <v>775</v>
@@ -3693,13 +3711,13 @@
         <v>817739</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3711,16 +3729,16 @@
         <v>386</v>
       </c>
       <c r="D7" s="7">
-        <v>353901</v>
+        <v>353902</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>471</v>
@@ -3729,13 +3747,13 @@
         <v>554757</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
         <v>857</v>
@@ -3744,18 +3762,18 @@
         <v>908658</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -3767,13 +3785,13 @@
         <v>1748</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>217</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -3782,13 +3800,13 @@
         <v>4230</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -3797,13 +3815,13 @@
         <v>5978</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>76</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3818,13 +3836,13 @@
         <v>1482</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
@@ -3833,13 +3851,13 @@
         <v>7983</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="M9" s="7">
         <v>9</v>
@@ -3848,19 +3866,19 @@
         <v>9465</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>224</v>
+        <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>164</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
         <v>193</v>
@@ -3869,13 +3887,13 @@
         <v>189301</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="H10" s="7">
         <v>148</v>
@@ -3884,13 +3902,13 @@
         <v>175862</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="M10" s="7">
         <v>341</v>
@@ -3899,13 +3917,13 @@
         <v>365163</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3920,13 +3938,13 @@
         <v>192532</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
         <v>157</v>
@@ -3935,13 +3953,13 @@
         <v>188074</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
         <v>354</v>
@@ -3950,18 +3968,18 @@
         <v>380606</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3973,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>14</v>
@@ -3988,13 +4006,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>234</v>
+        <v>87</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4003,13 +4021,13 @@
         <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4024,13 +4042,13 @@
         <v>868</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -4039,13 +4057,13 @@
         <v>1376</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -4054,19 +4072,19 @@
         <v>2244</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
         <v>40</v>
@@ -4075,13 +4093,13 @@
         <v>41161</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>64</v>
+        <v>246</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H14" s="7">
         <v>25</v>
@@ -4090,13 +4108,13 @@
         <v>32298</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M14" s="7">
         <v>65</v>
@@ -4105,13 +4123,13 @@
         <v>73459</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4126,13 +4144,13 @@
         <v>42029</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7">
         <v>26</v>
@@ -4141,13 +4159,13 @@
         <v>33674</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M15" s="7">
         <v>67</v>
@@ -4156,13 +4174,13 @@
         <v>75703</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4179,13 +4197,13 @@
         <v>10343</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>214</v>
+        <v>253</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
@@ -4197,10 +4215,10 @@
         <v>17</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>188</v>
+        <v>254</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="M16" s="7">
         <v>33</v>
@@ -4209,13 +4227,13 @@
         <v>39044</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>250</v>
+        <v>77</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4230,13 +4248,13 @@
         <v>20952</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>155</v>
+        <v>259</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>254</v>
+        <v>203</v>
       </c>
       <c r="H17" s="7">
         <v>40</v>
@@ -4245,13 +4263,13 @@
         <v>48610</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="M17" s="7">
         <v>64</v>
@@ -4260,19 +4278,19 @@
         <v>69562</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>259</v>
+        <v>28</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>588</v>
@@ -4281,13 +4299,13 @@
         <v>557168</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H18" s="7">
         <v>593</v>
@@ -4296,13 +4314,13 @@
         <v>699194</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="M18" s="7">
         <v>1181</v>
@@ -4311,13 +4329,13 @@
         <v>1256362</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4332,13 +4350,13 @@
         <v>588463</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
         <v>654</v>
@@ -4347,13 +4365,13 @@
         <v>776505</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M19" s="7">
         <v>1278</v>
@@ -4362,13 +4380,13 @@
         <v>1364968</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4392,7 +4410,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643863A3-4235-4FC9-80B4-B4B07757AE8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{108EFE6E-D5B3-45A4-B6C6-001739B4FB35}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4409,7 +4427,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4516,13 +4534,13 @@
         <v>7509</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H4" s="7">
         <v>67</v>
@@ -4531,13 +4549,13 @@
         <v>39780</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M4" s="7">
         <v>80</v>
@@ -4546,13 +4564,13 @@
         <v>47290</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4567,13 +4585,13 @@
         <v>20406</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H5" s="7">
         <v>117</v>
@@ -4582,13 +4600,13 @@
         <v>64264</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="M5" s="7">
         <v>147</v>
@@ -4597,19 +4615,19 @@
         <v>84670</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>385</v>
@@ -4618,13 +4636,13 @@
         <v>259557</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>98</v>
+        <v>291</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H6" s="7">
         <v>834</v>
@@ -4633,13 +4651,13 @@
         <v>450821</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="M6" s="7">
         <v>1219</v>
@@ -4648,13 +4666,13 @@
         <v>710378</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4669,13 +4687,13 @@
         <v>287472</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>1018</v>
@@ -4684,13 +4702,13 @@
         <v>554865</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
         <v>1446</v>
@@ -4699,18 +4717,18 @@
         <v>842337</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -4722,13 +4740,13 @@
         <v>1444</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -4737,13 +4755,13 @@
         <v>2497</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
@@ -4752,13 +4770,13 @@
         <v>3940</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4773,13 +4791,13 @@
         <v>10294</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>197</v>
+        <v>307</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>55</v>
+        <v>308</v>
       </c>
       <c r="H9" s="7">
         <v>33</v>
@@ -4788,13 +4806,13 @@
         <v>16408</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="M9" s="7">
         <v>48</v>
@@ -4803,19 +4821,19 @@
         <v>26702</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
         <v>409</v>
@@ -4824,13 +4842,13 @@
         <v>282829</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="H10" s="7">
         <v>491</v>
@@ -4839,13 +4857,13 @@
         <v>367517</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>312</v>
+        <v>270</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="M10" s="7">
         <v>900</v>
@@ -4854,13 +4872,13 @@
         <v>650346</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4875,13 +4893,13 @@
         <v>294566</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
         <v>529</v>
@@ -4890,13 +4908,13 @@
         <v>386422</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
         <v>955</v>
@@ -4905,18 +4923,18 @@
         <v>680988</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4928,13 +4946,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4943,13 +4961,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4958,13 +4976,13 @@
         <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4979,13 +4997,13 @@
         <v>2663</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>219</v>
+        <v>325</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -4994,13 +5012,13 @@
         <v>2477</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -5009,19 +5027,19 @@
         <v>5140</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>325</v>
+        <v>83</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
         <v>163</v>
@@ -5030,13 +5048,13 @@
         <v>109323</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="H14" s="7">
         <v>148</v>
@@ -5045,13 +5063,13 @@
         <v>75768</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="M14" s="7">
         <v>311</v>
@@ -5060,13 +5078,13 @@
         <v>185091</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5081,13 +5099,13 @@
         <v>111986</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7">
         <v>152</v>
@@ -5096,13 +5114,13 @@
         <v>78245</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M15" s="7">
         <v>320</v>
@@ -5111,13 +5129,13 @@
         <v>190231</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5134,13 +5152,13 @@
         <v>8953</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="H16" s="7">
         <v>72</v>
@@ -5149,10 +5167,10 @@
         <v>42277</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>340</v>
+        <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>102</v>
@@ -5164,13 +5182,13 @@
         <v>51230</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5185,13 +5203,13 @@
         <v>33363</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="H17" s="7">
         <v>154</v>
@@ -5200,13 +5218,13 @@
         <v>83149</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="M17" s="7">
         <v>204</v>
@@ -5215,19 +5233,19 @@
         <v>116512</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>957</v>
@@ -5236,13 +5254,13 @@
         <v>651708</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="H18" s="7">
         <v>1473</v>
@@ -5251,13 +5269,13 @@
         <v>894106</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>179</v>
+        <v>359</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>121</v>
+        <v>361</v>
       </c>
       <c r="M18" s="7">
         <v>2430</v>
@@ -5266,13 +5284,13 @@
         <v>1545815</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5287,13 +5305,13 @@
         <v>694024</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
         <v>1699</v>
@@ -5302,13 +5320,13 @@
         <v>1019532</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M19" s="7">
         <v>2721</v>
@@ -5317,13 +5335,13 @@
         <v>1713556</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Q5404-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5404-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{589F46AE-EFB1-4A0D-9C34-DCD989424403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{731A10D1-3066-4DDC-95A0-1A2C2FC2743D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CCFB239F-A2A5-445A-A711-BED31EDC75CF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{683D5160-4743-4CF5-826D-D695C5340A75}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="364">
   <si>
     <t>Población según si es capaz de manejar dinero en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -77,1063 +77,1060 @@
     <t>2,35%</t>
   </si>
   <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>Con alguna ayuda</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>Sin ayuda</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de manejar dinero en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de manejar dinero en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
     <t>1,19%</t>
   </si>
   <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de manejar dinero en 2023 (Tasa respuesta: 31,26%)</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
     <t>4,15%</t>
   </si>
   <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>Con alguna ayuda</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>Sin ayuda</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de manejar dinero en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de manejar dinero en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de manejar dinero en 2023 (Tasa respuesta: 31,26%)</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
     <t>2,99%</t>
   </si>
   <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
   </si>
   <si>
     <t>4,81%</t>
   </si>
   <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
   </si>
   <si>
     <t>8,16%</t>
   </si>
   <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
+    <t>9,88%</t>
   </si>
   <si>
     <t>6,8%</t>
   </si>
   <si>
+    <t>5,34%</t>
+  </si>
+  <si>
     <t>93,9%</t>
   </si>
   <si>
     <t>92,23%</t>
   </si>
   <si>
-    <t>95,31%</t>
+    <t>95,27%</t>
   </si>
   <si>
     <t>87,7%</t>
   </si>
   <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
   </si>
   <si>
     <t>90,21%</t>
   </si>
   <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
   </si>
 </sst>
 </file>
@@ -1545,7 +1542,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{265D130C-78F3-47DA-AFDB-60FB20006841}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC1895C-3A99-4D08-80A4-BAD2D8C97784}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1926,13 +1923,13 @@
         <v>2590</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -1941,13 +1938,13 @@
         <v>1124</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>43</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
@@ -1956,13 +1953,13 @@
         <v>3714</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1977,13 +1974,13 @@
         <v>83742</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H10" s="7">
         <v>57</v>
@@ -1992,13 +1989,13 @@
         <v>59033</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M10" s="7">
         <v>142</v>
@@ -2007,13 +2004,13 @@
         <v>142775</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2069,7 +2066,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2084,10 +2081,10 @@
         <v>43</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2099,7 +2096,7 @@
         <v>43</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>29</v>
@@ -2114,10 +2111,10 @@
         <v>43</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2135,10 +2132,10 @@
         <v>43</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2150,7 +2147,7 @@
         <v>43</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>29</v>
@@ -2165,10 +2162,10 @@
         <v>43</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2183,10 +2180,10 @@
         <v>41194</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>40</v>
@@ -2198,10 +2195,10 @@
         <v>26881</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>40</v>
@@ -2213,10 +2210,10 @@
         <v>68075</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>40</v>
@@ -2287,13 +2284,13 @@
         <v>10539</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H16" s="7">
         <v>27</v>
@@ -2302,13 +2299,13 @@
         <v>28788</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M16" s="7">
         <v>38</v>
@@ -2317,13 +2314,13 @@
         <v>39327</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2338,13 +2335,13 @@
         <v>20724</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H17" s="7">
         <v>31</v>
@@ -2353,13 +2350,13 @@
         <v>33708</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M17" s="7">
         <v>54</v>
@@ -2368,13 +2365,13 @@
         <v>54432</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2389,13 +2386,13 @@
         <v>471204</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H18" s="7">
         <v>603</v>
@@ -2404,13 +2401,13 @@
         <v>614346</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M18" s="7">
         <v>1092</v>
@@ -2419,13 +2416,13 @@
         <v>1085550</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2481,7 +2478,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2500,7 +2497,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DD61FB-AEFB-497E-9597-F828FA5767F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE75CB5B-0C46-4CC1-9FDB-729E82169A56}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2517,7 +2514,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2624,13 +2621,13 @@
         <v>22043</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H4" s="7">
         <v>38</v>
@@ -2639,13 +2636,13 @@
         <v>42487</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M4" s="7">
         <v>58</v>
@@ -2654,10 +2651,10 @@
         <v>64530</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>110</v>
@@ -2881,10 +2878,10 @@
         <v>5442</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>137</v>
@@ -3024,7 +3021,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3039,7 +3036,7 @@
         <v>43</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>152</v>
@@ -3054,7 +3051,7 @@
         <v>43</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>153</v>
@@ -3069,7 +3066,7 @@
         <v>43</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>154</v>
@@ -3090,7 +3087,7 @@
         <v>43</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>152</v>
@@ -3102,13 +3099,13 @@
         <v>1100</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>19</v>
+        <v>155</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>43</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -3117,13 +3114,13 @@
         <v>1100</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>43</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3138,10 +3135,10 @@
         <v>26575</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>40</v>
@@ -3153,13 +3150,13 @@
         <v>21146</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M14" s="7">
         <v>38</v>
@@ -3168,13 +3165,13 @@
         <v>47721</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3242,13 +3239,13 @@
         <v>23035</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H16" s="7">
         <v>40</v>
@@ -3257,13 +3254,13 @@
         <v>44911</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M16" s="7">
         <v>61</v>
@@ -3272,13 +3269,13 @@
         <v>67946</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,13 +3290,13 @@
         <v>30443</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H17" s="7">
         <v>69</v>
@@ -3308,13 +3305,13 @@
         <v>74788</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M17" s="7">
         <v>94</v>
@@ -3323,13 +3320,13 @@
         <v>105231</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3344,13 +3341,13 @@
         <v>506158</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H18" s="7">
         <v>582</v>
@@ -3359,13 +3356,13 @@
         <v>620166</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M18" s="7">
         <v>1040</v>
@@ -3374,13 +3371,13 @@
         <v>1126325</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3436,7 +3433,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3455,7 +3452,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88F47A69-97D7-47B5-BD28-778B9167F7CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C72C2E-55C7-4D48-96C8-703A63FFB808}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3472,7 +3469,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3579,13 +3576,13 @@
         <v>8595</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -3633,10 +3630,10 @@
         <v>199</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H5" s="7">
         <v>32</v>
@@ -3645,13 +3642,13 @@
         <v>39252</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>203</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="M5" s="7">
         <v>53</v>
@@ -3660,13 +3657,13 @@
         <v>57853</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3681,13 +3678,13 @@
         <v>326706</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H6" s="7">
         <v>420</v>
@@ -3696,13 +3693,13 @@
         <v>491034</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M6" s="7">
         <v>775</v>
@@ -3711,13 +3708,13 @@
         <v>817739</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3785,13 +3782,13 @@
         <v>1748</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>218</v>
+        <v>140</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -3800,13 +3797,13 @@
         <v>4230</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -3815,13 +3812,13 @@
         <v>5978</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3836,13 +3833,13 @@
         <v>1482</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
@@ -3851,13 +3848,13 @@
         <v>7983</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="M9" s="7">
         <v>9</v>
@@ -3866,13 +3863,13 @@
         <v>9465</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>12</v>
+        <v>226</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3887,13 +3884,13 @@
         <v>189301</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H10" s="7">
         <v>148</v>
@@ -3902,13 +3899,13 @@
         <v>175862</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M10" s="7">
         <v>341</v>
@@ -3917,13 +3914,13 @@
         <v>365163</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3979,7 +3976,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3994,7 +3991,7 @@
         <v>43</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>14</v>
@@ -4009,10 +4006,10 @@
         <v>43</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>87</v>
+        <v>237</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4024,10 +4021,10 @@
         <v>43</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4042,13 +4039,13 @@
         <v>868</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -4057,13 +4054,13 @@
         <v>1376</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>43</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -4072,13 +4069,13 @@
         <v>2244</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>43</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4093,13 +4090,13 @@
         <v>41161</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>246</v>
+        <v>66</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H14" s="7">
         <v>25</v>
@@ -4108,13 +4105,13 @@
         <v>32298</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M14" s="7">
         <v>65</v>
@@ -4123,13 +4120,13 @@
         <v>73459</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4197,13 +4194,13 @@
         <v>10343</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>217</v>
+        <v>251</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>253</v>
+        <v>50</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
@@ -4215,10 +4212,10 @@
         <v>17</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="M16" s="7">
         <v>33</v>
@@ -4227,13 +4224,13 @@
         <v>39044</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4248,13 +4245,13 @@
         <v>20952</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>203</v>
+        <v>155</v>
       </c>
       <c r="H17" s="7">
         <v>40</v>
@@ -4263,13 +4260,13 @@
         <v>48610</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M17" s="7">
         <v>64</v>
@@ -4278,13 +4275,13 @@
         <v>69562</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4299,13 +4296,13 @@
         <v>557168</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H18" s="7">
         <v>593</v>
@@ -4314,13 +4311,13 @@
         <v>699194</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M18" s="7">
         <v>1181</v>
@@ -4329,13 +4326,13 @@
         <v>1256362</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4391,7 +4388,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -4410,7 +4407,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{108EFE6E-D5B3-45A4-B6C6-001739B4FB35}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4077F600-20E8-4A27-84EE-DB6869BE2133}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4427,7 +4424,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4534,13 +4531,13 @@
         <v>7509</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="H4" s="7">
         <v>67</v>
@@ -4549,10 +4546,10 @@
         <v>39780</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>279</v>
@@ -4567,7 +4564,7 @@
         <v>280</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>281</v>
@@ -4615,13 +4612,13 @@
         <v>84670</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4636,13 +4633,13 @@
         <v>259557</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="H6" s="7">
         <v>834</v>
@@ -4651,13 +4648,13 @@
         <v>450821</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="M6" s="7">
         <v>1219</v>
@@ -4666,13 +4663,13 @@
         <v>710378</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4740,7 +4737,7 @@
         <v>1444</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>134</v>
+        <v>299</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>43</v>
@@ -4776,7 +4773,7 @@
         <v>305</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>306</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4791,10 +4788,10 @@
         <v>10294</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>308</v>
@@ -4806,7 +4803,7 @@
         <v>16408</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>309</v>
@@ -4827,7 +4824,7 @@
         <v>312</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>313</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4842,13 +4839,13 @@
         <v>282829</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="H10" s="7">
         <v>491</v>
@@ -4857,10 +4854,10 @@
         <v>367517</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>318</v>
@@ -4934,7 +4931,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4949,7 +4946,7 @@
         <v>43</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>322</v>
@@ -4964,7 +4961,7 @@
         <v>43</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>323</v>
@@ -4979,7 +4976,7 @@
         <v>43</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>324</v>
@@ -5000,10 +4997,10 @@
         <v>325</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -5012,13 +5009,13 @@
         <v>2477</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -5027,7 +5024,7 @@
         <v>5140</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>83</v>
+        <v>330</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>331</v>
@@ -5084,7 +5081,7 @@
         <v>340</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>341</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5152,13 +5149,13 @@
         <v>8953</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="H16" s="7">
         <v>72</v>
@@ -5167,13 +5164,13 @@
         <v>42277</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>13</v>
+        <v>344</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>345</v>
+        <v>221</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M16" s="7">
         <v>87</v>
@@ -5182,13 +5179,13 @@
         <v>51230</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5203,13 +5200,13 @@
         <v>33363</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>351</v>
       </c>
       <c r="H17" s="7">
         <v>154</v>
@@ -5218,13 +5215,13 @@
         <v>83149</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="M17" s="7">
         <v>204</v>
@@ -5233,13 +5230,13 @@
         <v>116512</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>171</v>
+        <v>354</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5254,13 +5251,13 @@
         <v>651708</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="H18" s="7">
         <v>1473</v>
@@ -5269,13 +5266,13 @@
         <v>894106</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>361</v>
       </c>
       <c r="M18" s="7">
         <v>2430</v>
@@ -5284,13 +5281,13 @@
         <v>1545815</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5346,7 +5343,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5404-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5404-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{731A10D1-3066-4DDC-95A0-1A2C2FC2743D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3316DEF-5CB6-474C-9E9C-F03B12F93745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{683D5160-4743-4CF5-826D-D695C5340A75}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{FECBB957-8D63-4B08-B46B-FF96919EF8BC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="360">
   <si>
     <t>Población según si es capaz de manejar dinero en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -863,148 +863,142 @@
     <t>Población según si es capaz de manejar dinero en 2023 (Tasa respuesta: 31,26%)</t>
   </si>
   <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
   </si>
   <si>
     <t>5,5%</t>
   </si>
   <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
   </si>
   <si>
     <t>96,02%</t>
   </si>
   <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
   </si>
   <si>
     <t>1,14%</t>
@@ -1016,121 +1010,115 @@
     <t>0,6%</t>
   </si>
   <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
   </si>
   <si>
     <t>94,09%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
   </si>
 </sst>
 </file>
@@ -1542,7 +1530,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC1895C-3A99-4D08-80A4-BAD2D8C97784}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E47BC9AD-D7CB-4E79-8D30-AD6065490985}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1780,7 +1768,7 @@
         <v>519</v>
       </c>
       <c r="I6" s="7">
-        <v>528433</v>
+        <v>528432</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1831,7 +1819,7 @@
         <v>574</v>
       </c>
       <c r="I7" s="7">
-        <v>587750</v>
+        <v>587749</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -2497,7 +2485,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE75CB5B-0C46-4CC1-9FDB-729E82169A56}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C305E8-6659-4F4E-AE96-38B22913ED1A}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3452,7 +3440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C72C2E-55C7-4D48-96C8-703A63FFB808}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE409CC0-95BD-4748-89E7-73F6F5F8E076}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3675,7 +3663,7 @@
         <v>355</v>
       </c>
       <c r="D6" s="7">
-        <v>326706</v>
+        <v>326705</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>206</v>
@@ -3726,7 +3714,7 @@
         <v>386</v>
       </c>
       <c r="D7" s="7">
-        <v>353902</v>
+        <v>353901</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -4407,7 +4395,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4077F600-20E8-4A27-84EE-DB6869BE2133}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02969BB4-8C3C-4728-9C50-82F0B86D3989}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4528,7 +4516,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="7">
-        <v>7509</v>
+        <v>7048</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>274</v>
@@ -4537,37 +4525,37 @@
         <v>275</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>276</v>
+        <v>14</v>
       </c>
       <c r="H4" s="7">
         <v>67</v>
       </c>
       <c r="I4" s="7">
-        <v>39780</v>
+        <v>35683</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="M4" s="7">
         <v>80</v>
       </c>
       <c r="N4" s="7">
-        <v>47290</v>
+        <v>42732</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>227</v>
+        <v>167</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>281</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4579,46 +4567,46 @@
         <v>30</v>
       </c>
       <c r="D5" s="7">
-        <v>20406</v>
+        <v>19615</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H5" s="7">
         <v>117</v>
       </c>
       <c r="I5" s="7">
-        <v>64264</v>
+        <v>57840</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M5" s="7">
         <v>147</v>
       </c>
       <c r="N5" s="7">
-        <v>84670</v>
+        <v>77454</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4630,46 +4618,46 @@
         <v>385</v>
       </c>
       <c r="D6" s="7">
-        <v>259557</v>
+        <v>242581</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="H6" s="7">
         <v>834</v>
       </c>
       <c r="I6" s="7">
-        <v>450821</v>
+        <v>406617</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="M6" s="7">
         <v>1219</v>
       </c>
       <c r="N6" s="7">
-        <v>710378</v>
+        <v>649198</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4681,7 +4669,7 @@
         <v>428</v>
       </c>
       <c r="D7" s="7">
-        <v>287472</v>
+        <v>269244</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -4696,7 +4684,7 @@
         <v>1018</v>
       </c>
       <c r="I7" s="7">
-        <v>554865</v>
+        <v>500140</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -4711,7 +4699,7 @@
         <v>1446</v>
       </c>
       <c r="N7" s="7">
-        <v>842337</v>
+        <v>769384</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -4734,46 +4722,46 @@
         <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>1444</v>
+        <v>1345</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
       </c>
       <c r="I8" s="7">
-        <v>2497</v>
+        <v>2247</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
       </c>
       <c r="N8" s="7">
-        <v>3940</v>
+        <v>3592</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>12</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4785,46 +4773,46 @@
         <v>15</v>
       </c>
       <c r="D9" s="7">
-        <v>10294</v>
+        <v>9523</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="H9" s="7">
         <v>33</v>
       </c>
       <c r="I9" s="7">
-        <v>16408</v>
+        <v>14832</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>78</v>
+        <v>307</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>309</v>
+        <v>141</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M9" s="7">
         <v>48</v>
       </c>
       <c r="N9" s="7">
-        <v>26702</v>
+        <v>24355</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>311</v>
+        <v>105</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>172</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4836,46 +4824,46 @@
         <v>409</v>
       </c>
       <c r="D10" s="7">
-        <v>282829</v>
+        <v>262388</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="H10" s="7">
         <v>491</v>
       </c>
       <c r="I10" s="7">
-        <v>367517</v>
+        <v>438660</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="M10" s="7">
         <v>900</v>
       </c>
       <c r="N10" s="7">
-        <v>650346</v>
+        <v>701049</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4887,7 +4875,7 @@
         <v>426</v>
       </c>
       <c r="D11" s="7">
-        <v>294566</v>
+        <v>273257</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -4902,7 +4890,7 @@
         <v>529</v>
       </c>
       <c r="I11" s="7">
-        <v>386422</v>
+        <v>455739</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -4917,7 +4905,7 @@
         <v>955</v>
       </c>
       <c r="N11" s="7">
-        <v>680988</v>
+        <v>728996</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -4949,7 +4937,7 @@
         <v>68</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4964,7 +4952,7 @@
         <v>68</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4979,7 +4967,7 @@
         <v>68</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4991,46 +4979,46 @@
         <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>2663</v>
+        <v>2444</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>322</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
       </c>
       <c r="I13" s="7">
-        <v>2477</v>
+        <v>2184</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>329</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
       </c>
       <c r="N13" s="7">
-        <v>5140</v>
+        <v>4628</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5042,46 +5030,46 @@
         <v>163</v>
       </c>
       <c r="D14" s="7">
-        <v>109323</v>
+        <v>102542</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="H14" s="7">
         <v>148</v>
       </c>
       <c r="I14" s="7">
-        <v>75768</v>
+        <v>69141</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="M14" s="7">
         <v>311</v>
       </c>
       <c r="N14" s="7">
-        <v>185091</v>
+        <v>171683</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>148</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5093,7 +5081,7 @@
         <v>168</v>
       </c>
       <c r="D15" s="7">
-        <v>111986</v>
+        <v>104986</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -5108,7 +5096,7 @@
         <v>152</v>
       </c>
       <c r="I15" s="7">
-        <v>78245</v>
+        <v>71325</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -5123,7 +5111,7 @@
         <v>320</v>
       </c>
       <c r="N15" s="7">
-        <v>190231</v>
+        <v>176311</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -5146,46 +5134,46 @@
         <v>15</v>
       </c>
       <c r="D16" s="7">
-        <v>8953</v>
+        <v>8394</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>341</v>
+        <v>301</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>342</v>
+        <v>56</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="H16" s="7">
         <v>72</v>
       </c>
       <c r="I16" s="7">
-        <v>42277</v>
+        <v>37930</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>221</v>
+        <v>299</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>104</v>
+        <v>341</v>
       </c>
       <c r="M16" s="7">
         <v>87</v>
       </c>
       <c r="N16" s="7">
-        <v>51230</v>
+        <v>46324</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5197,46 +5185,46 @@
         <v>50</v>
       </c>
       <c r="D17" s="7">
-        <v>33363</v>
+        <v>31582</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>349</v>
+        <v>196</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="H17" s="7">
         <v>154</v>
       </c>
       <c r="I17" s="7">
-        <v>83149</v>
+        <v>74856</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>351</v>
+        <v>280</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>280</v>
+        <v>347</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="M17" s="7">
         <v>204</v>
       </c>
       <c r="N17" s="7">
-        <v>116512</v>
+        <v>106438</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>200</v>
+        <v>350</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5248,46 +5236,46 @@
         <v>957</v>
       </c>
       <c r="D18" s="7">
-        <v>651708</v>
+        <v>607511</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H18" s="7">
         <v>1473</v>
       </c>
       <c r="I18" s="7">
-        <v>894106</v>
+        <v>914419</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="M18" s="7">
         <v>2430</v>
       </c>
       <c r="N18" s="7">
-        <v>1545815</v>
+        <v>1521929</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5299,7 +5287,7 @@
         <v>1022</v>
       </c>
       <c r="D19" s="7">
-        <v>694024</v>
+        <v>647487</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -5314,7 +5302,7 @@
         <v>1699</v>
       </c>
       <c r="I19" s="7">
-        <v>1019532</v>
+        <v>1027204</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -5329,7 +5317,7 @@
         <v>2721</v>
       </c>
       <c r="N19" s="7">
-        <v>1713556</v>
+        <v>1674691</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
